--- a/RTL/documents/port.xlsx
+++ b/RTL/documents/port.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="80">
   <si>
     <t>MSX を作る上で必要になる入出力ピン一覧</t>
     <rPh sb="5" eb="6">
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>slot_bus_dir_n</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>slot_cs1_n</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -340,10 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TangPrimer20K Lite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>BIOS-ROM, Keyboard, DIP S/W, LED, WiFi はESP32に任せる</t>
     <rPh sb="46" eb="47">
       <t>マカ</t>
@@ -360,6 +352,42 @@
   </si>
   <si>
     <t>output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot_dir</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TangPrimer20K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D0-D7の方向指示用</t>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>slot_oe_n</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベルシフタ出力 ON/OFF</t>
+    <rPh sb="6" eb="8">
+      <t>シュツリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -809,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M52"/>
+  <dimension ref="B2:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +849,7 @@
     <col min="2" max="2" width="3" customWidth="1"/>
     <col min="3" max="3" width="3.5" customWidth="1"/>
     <col min="4" max="5" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -862,7 +890,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>3</v>
@@ -877,23 +905,23 @@
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="G6" s="3">
-        <f>SUM(G7:G88)</f>
-        <v>90</v>
+        <f>SUM(G7:G89)</f>
+        <v>91</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -903,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -924,7 +952,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>10</v>
@@ -945,7 +973,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>15</v>
@@ -964,7 +992,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
@@ -983,7 +1011,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
@@ -1002,7 +1030,7 @@
         <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>17</v>
@@ -1021,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>18</v>
@@ -1040,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
@@ -1059,7 +1087,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>20</v>
@@ -1078,7 +1106,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>21</v>
@@ -1097,7 +1125,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>22</v>
@@ -1116,7 +1144,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>23</v>
@@ -1135,10 +1163,10 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1146,7 +1174,9 @@
       <c r="G19" s="1">
         <v>1</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.15">
@@ -1154,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1173,10 +1203,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>13</v>
@@ -1192,10 +1222,10 @@
         <v>16</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1211,10 +1241,10 @@
         <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1230,10 +1260,10 @@
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>11</v>
@@ -1242,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I24" s="1"/>
     </row>
@@ -1251,10 +1281,10 @@
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>11</v>
@@ -1263,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I25" s="1"/>
     </row>
@@ -1272,10 +1302,10 @@
         <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1291,18 +1321,20 @@
         <v>21</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1">
-        <v>6</v>
-      </c>
-      <c r="H27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.15">
@@ -1310,16 +1342,16 @@
         <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G28" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -1329,10 +1361,10 @@
         <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>13</v>
@@ -1348,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>38</v>
@@ -1357,7 +1389,7 @@
         <v>13</v>
       </c>
       <c r="G30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -1367,10 +1399,10 @@
         <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1386,13 +1418,13 @@
         <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -1405,13 +1437,13 @@
         <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -1424,7 +1456,7 @@
         <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>42</v>
@@ -1443,16 +1475,16 @@
         <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -1462,16 +1494,16 @@
         <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G36" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -1481,13 +1513,13 @@
         <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="F37" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -1500,20 +1532,18 @@
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>72</v>
-      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.15">
@@ -1521,10 +1551,10 @@
         <v>33</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>13</v>
@@ -1532,7 +1562,9 @@
       <c r="G39" s="1">
         <v>1</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.15">
@@ -1540,10 +1572,10 @@
         <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>13</v>
@@ -1559,13 +1591,13 @@
         <v>35</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="F41" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -1578,16 +1610,16 @@
         <v>36</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G42" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -1597,10 +1629,10 @@
         <v>37</v>
       </c>
       <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>13</v>
@@ -1616,10 +1648,10 @@
         <v>38</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>13</v>
@@ -1635,16 +1667,16 @@
         <v>39</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G45" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -1654,10 +1686,10 @@
         <v>40</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>13</v>
@@ -1673,10 +1705,10 @@
         <v>41</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>13</v>
@@ -1692,10 +1724,10 @@
         <v>42</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>13</v>
@@ -1711,10 +1743,10 @@
         <v>43</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>13</v>
@@ -1722,9 +1754,7 @@
       <c r="G49" s="1">
         <v>1</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.15">
@@ -1732,18 +1762,20 @@
         <v>44</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>61</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.15">
@@ -1751,20 +1783,18 @@
         <v>45</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>64</v>
-      </c>
+      <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.15">
@@ -1772,19 +1802,40 @@
         <v>46</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>67</v>
-      </c>
       <c r="F52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C53" s="1">
+        <v>47</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G52" s="1">
-        <v>1</v>
-      </c>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="G53" s="1">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
